--- a/xlsx/組織_intext.xlsx
+++ b/xlsx/組織_intext.xlsx
@@ -29,7 +29,7 @@
     <t>组织 (社会学)</t>
   </si>
   <si>
-    <t>政策_政策_管理_組織</t>
+    <t>体育运动_体育运动_文化_組織</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%94%9F%E7%89%A9%E5%AD%A6)</t>
